--- a/src/test/resources/archivos/VL DNI valido - VL.xlsx
+++ b/src/test/resources/archivos/VL DNI valido - VL.xlsx
@@ -237,7 +237,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
   <si>
     <t>TIPO_PRODUCTO</t>
   </si>
@@ -414,6 +414,48 @@
   </si>
   <si>
     <t>1967703</t>
+  </si>
+  <si>
+    <t>1967711</t>
+  </si>
+  <si>
+    <t>1967717</t>
+  </si>
+  <si>
+    <t>1967725</t>
+  </si>
+  <si>
+    <t>1967726</t>
+  </si>
+  <si>
+    <t>1967727</t>
+  </si>
+  <si>
+    <t>1967728</t>
+  </si>
+  <si>
+    <t>1967729</t>
+  </si>
+  <si>
+    <t>1967730</t>
+  </si>
+  <si>
+    <t>1967731</t>
+  </si>
+  <si>
+    <t>1967732</t>
+  </si>
+  <si>
+    <t>1967733</t>
+  </si>
+  <si>
+    <t>1967734</t>
+  </si>
+  <si>
+    <t>1967735</t>
+  </si>
+  <si>
+    <t>1967736</t>
   </si>
 </sst>
 </file>
@@ -910,10 +952,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s" s="0">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C2" s="0">
         <v>1</v>

--- a/src/test/resources/archivos/VL DNI valido - VL.xlsx
+++ b/src/test/resources/archivos/VL DNI valido - VL.xlsx
@@ -237,7 +237,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="82">
   <si>
     <t>TIPO_PRODUCTO</t>
   </si>
@@ -456,6 +456,33 @@
   </si>
   <si>
     <t>1967736</t>
+  </si>
+  <si>
+    <t>1967763</t>
+  </si>
+  <si>
+    <t>1967771</t>
+  </si>
+  <si>
+    <t>1967772</t>
+  </si>
+  <si>
+    <t>1967773</t>
+  </si>
+  <si>
+    <t>1967774</t>
+  </si>
+  <si>
+    <t>1967775</t>
+  </si>
+  <si>
+    <t>1967776</t>
+  </si>
+  <si>
+    <t>1967777</t>
+  </si>
+  <si>
+    <t>INCLUSÍON</t>
   </si>
 </sst>
 </file>
@@ -952,10 +979,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s" s="0">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C2" s="0">
         <v>1</v>

--- a/src/test/resources/archivos/VL DNI valido - VL.xlsx
+++ b/src/test/resources/archivos/VL DNI valido - VL.xlsx
@@ -237,7 +237,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="85">
   <si>
     <t>TIPO_PRODUCTO</t>
   </si>
@@ -483,6 +483,15 @@
   </si>
   <si>
     <t>INCLUSÍON</t>
+  </si>
+  <si>
+    <t>1967781</t>
+  </si>
+  <si>
+    <t>1967782</t>
+  </si>
+  <si>
+    <t>1967783</t>
   </si>
 </sst>
 </file>
@@ -982,7 +991,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C2" s="0">
         <v>1</v>

--- a/src/test/resources/archivos/VL DNI valido - VL.xlsx
+++ b/src/test/resources/archivos/VL DNI valido - VL.xlsx
@@ -237,7 +237,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="88">
   <si>
     <t>TIPO_PRODUCTO</t>
   </si>
@@ -492,6 +492,15 @@
   </si>
   <si>
     <t>1967783</t>
+  </si>
+  <si>
+    <t>1967800</t>
+  </si>
+  <si>
+    <t>1967801</t>
+  </si>
+  <si>
+    <t>1967802</t>
   </si>
 </sst>
 </file>
@@ -988,10 +997,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s" s="0">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="C2" s="0">
         <v>1</v>
